--- a/tables/TableX_hab_syndromes.xlsx
+++ b/tables/TableX_hab_syndromes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2086D2F-D518-7E48-AD63-D2A12C57CE2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF377DC8-3F9A-8643-B08C-2CE73F71A066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22220" yWindow="1920" windowWidth="27640" windowHeight="16940" xr2:uid="{EF649B84-3C3E-464C-A631-A7E37E3F924C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{EF649B84-3C3E-464C-A631-A7E37E3F924C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FInal" sheetId="2" r:id="rId1"/>
+    <sheet name="Raw" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>Syndrome</t>
   </si>
@@ -190,13 +191,85 @@
   </si>
   <si>
     <t>CTX</t>
+  </si>
+  <si>
+    <t>Other phycotoxins**</t>
+  </si>
+  <si>
+    <t>Cyanotoxin*</t>
+  </si>
+  <si>
+    <t>* Microcystin, nodularin, homanatoxin</t>
+  </si>
+  <si>
+    <t>Domoic acid (DA)</t>
+  </si>
+  <si>
+    <t>Okadaic acid (OA)</t>
+  </si>
+  <si>
+    <t>Saxitoxin (STX)</t>
+  </si>
+  <si>
+    <t>Azaspiracid (AZA)</t>
+  </si>
+  <si>
+    <t>Ciguatoxin (CTX)</t>
+  </si>
+  <si>
+    <t>Brevetoxin (PbTx)</t>
+  </si>
+  <si>
+    <t>Amnesic (ASP)</t>
+  </si>
+  <si>
+    <t>Diarrhetic (DSP)</t>
+  </si>
+  <si>
+    <t>Paralytic (PSP)</t>
+  </si>
+  <si>
+    <t>Neurotoxic (NSP)</t>
+  </si>
+  <si>
+    <t>Ciguatera (CFP)</t>
+  </si>
+  <si>
+    <t>Azaspiracid (AZP)</t>
+  </si>
+  <si>
+    <t>** Yessotoxin (YTX), pectenotoxin (PTX), dinophysistoxin (DTX), tetrodotoxin (TTX), gymnodimine (GYM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Causative organism </t>
+  </si>
+  <si>
+    <t>Diatom: Pseudo-nitzschia spp.</t>
+  </si>
+  <si>
+    <t>Dinoflagellate: Dinophysis spp., Prorocentrum spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinoflagellate: Alexandrium spp, Pyrodinium bahamense, Gymnodinium catenatum </t>
+  </si>
+  <si>
+    <t>Dinoflagellate: Azadinium languida, Amphidoma spinosum</t>
+  </si>
+  <si>
+    <t>Dinoflagellate: Gambierdiscus spp., Fukuyoa spp.</t>
+  </si>
+  <si>
+    <t>Dinoflagellate: Karenia brevis</t>
+  </si>
+  <si>
+    <t>Dinoflagellate: Protoceratium reticulatum, Lingulodinium polyedra, Gonyaulax spp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,6 +295,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,16 +327,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,9 +367,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,7 +407,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -413,7 +513,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,18 +655,162 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E09B7F-A304-5442-8A1C-F4BD9F33CF9E}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212AA37B-60B1-6E40-8AEC-F294D0204112}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -603,219 +847,215 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1"/>
-    <row r="15" spans="1:7" s="2" customFormat="1"/>
-    <row r="16" spans="1:7" s="2" customFormat="1"/>
-    <row r="17" spans="5:5" s="2" customFormat="1"/>
-    <row r="18" spans="5:5" s="2" customFormat="1">
-      <c r="E18" s="4"/>
+    <row r="18" spans="5:5">
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
